--- a/ScrumBoard - Bus Reservation System (1).xlsx
+++ b/ScrumBoard - Bus Reservation System (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Project Repository\Bus_Reservation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759AA4AD-8808-4547-A1BC-6E4EBED49E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99251C-AA92-4AA9-A3FD-09D131B7E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="1270" windowWidth="14400" windowHeight="8170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1" sheetId="2" r:id="rId1"/>
@@ -64,10 +64,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">
- 4. Payments [SaiKrishnai] </t>
-  </si>
-  <si>
     <t>1  User Type, User/Customer Login,Admin Login, Customer[Jatin Pokale]</t>
   </si>
   <si>
@@ -122,6 +118,10 @@
   </si>
   <si>
     <t xml:space="preserve"> maintaining changes in database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ 4. Payments [Sivasankaran] </t>
   </si>
 </sst>
 </file>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -733,13 +733,13 @@
     </row>
     <row r="2" spans="1:6" ht="141" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="11"/>
@@ -752,10 +752,10 @@
         <v>10</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>6</v>
@@ -766,10 +766,10 @@
         <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>6</v>
@@ -777,13 +777,13 @@
     </row>
     <row r="5" spans="1:6" ht="171.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -808,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -844,10 +844,10 @@
     </row>
     <row r="2" spans="1:6" ht="210" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>9</v>
@@ -855,7 +855,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="11"/>
       <c r="F2" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -863,13 +863,13 @@
         <v>10</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
@@ -877,21 +877,21 @@
         <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
@@ -899,7 +899,7 @@
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
